--- a/files/menus.xlsx
+++ b/files/menus.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="21 03 2022" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="04 04 2022" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="14">
   <si>
     <t xml:space="preserve">Jour</t>
   </si>
@@ -59,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Soir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crêpes jambon</t>
   </si>
 </sst>
 </file>
@@ -166,11 +170,11 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M27" activeCellId="0" sqref="M27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -455,4 +459,276 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/files/menus.xlsx
+++ b/files/menus.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t xml:space="preserve">Jour</t>
   </si>
@@ -62,7 +62,153 @@
     <t xml:space="preserve">Soir</t>
   </si>
   <si>
-    <t xml:space="preserve">Crêpes jambon</t>
+    <t xml:space="preserve">Midi Italien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midi végétarien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crêpes jambon
+Crêpes fromage
+Gaspacho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charcuterie Italienne
+Salade composée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radis
+Cake olives poivrons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surimi
+Salade composée
+Guacamole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sardines
+Taboulé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish
+Sauté de volaille à la crème de poireaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polpette
+Colin à l’italienne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tortillas (oignons, œuf)
+Veau Flamand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cassoulet garni
+Brandade de morue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cordon bleu
+Moules basquaise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratatouille
+Pomme de terre vapeur</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Pennes au pesto rouge
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Pennes au pesto vert</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Pomme de terre flamande
+Haricots verts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frites
+Carottes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fromage / Yaourt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compote
+Fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarte citron meringuée / Panna cota /
+Fruits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crème dessert
+Fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gâteau ananas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oeufs mayonnaise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salade tomates féta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lentilles / cervelas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salade verte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colin au paprika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boeuf bourguignon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuisses de poulet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kebab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gratin chou fleur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riz pilaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poêlée de légumes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potatoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salade de fruits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liégeois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donut’s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sundae</t>
   </si>
 </sst>
 </file>
@@ -73,7 +219,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -94,6 +240,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,7 +289,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -149,6 +300,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -171,7 +326,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -469,10 +624,13 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="25.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -502,10 +660,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -514,104 +672,102 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>5</v>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,93 +788,93 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>6</v>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>7</v>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>8</v>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>9</v>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>10</v>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F15" s="2"/>
     </row>
